--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2055785.347274254</v>
+        <v>-2058372.858479831</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821741</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>235.7263033258626</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>165.4334313035961</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173969</v>
+        <v>11.79954938173971</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>98.28260921558366</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899006</v>
+        <v>98.62837588899008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978301</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>132.3654829872703</v>
       </c>
       <c r="U4" t="n">
         <v>286.2159662989849</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>52.8339175942811</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.9131463800418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>118.2222221732971</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>375.5214802173391</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.0148025157506</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>24.92146316148465</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>208.7590348198854</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.905700988128</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>147.6895341487362</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.22475183604956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>86.80636739625326</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>105.1162657551294</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>197.5531614304991</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.8796904206634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.26260713376628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460238</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>40.15381658332836</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652535</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972035</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.499155306216</v>
+        <v>1586.400030347487</v>
       </c>
       <c r="C2" t="n">
-        <v>825.536638365804</v>
+        <v>1217.437513407075</v>
       </c>
       <c r="D2" t="n">
-        <v>825.536638365804</v>
+        <v>859.1718148003246</v>
       </c>
       <c r="E2" t="n">
-        <v>825.536638365804</v>
+        <v>473.3835622020803</v>
       </c>
       <c r="F2" t="n">
-        <v>825.536638365804</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803942</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842587</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="I2" t="n">
-        <v>62.3976574124728</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730306</v>
+        <v>237.1001391730313</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315688</v>
+        <v>549.6723906315696</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529737</v>
+        <v>974.3476699529738</v>
       </c>
       <c r="M2" t="n">
         <v>1478.55018180827</v>
@@ -4343,37 +4343,37 @@
         <v>1995.525025811714</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076073</v>
+        <v>2470.35445007607</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259761</v>
+        <v>2841.109377259758</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.35814051024</v>
+        <v>3071.358140510237</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.88287062364</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672842</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614959</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998363</v>
+        <v>2866.338760007041</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.333408901532</v>
+        <v>2866.338760007041</v>
       </c>
       <c r="W2" t="n">
-        <v>1954.564753631417</v>
+        <v>2513.570104736927</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.098995370337</v>
+        <v>2140.104346475847</v>
       </c>
       <c r="Y2" t="n">
-        <v>1581.098995370337</v>
+        <v>1972.999870411609</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.45028327407</v>
+        <v>931.3126773451369</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.997253992943</v>
+        <v>756.8596480640099</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331692</v>
+        <v>607.9252384027586</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326236</v>
+        <v>448.6877833973032</v>
       </c>
       <c r="F3" t="n">
-        <v>865.290831353121</v>
+        <v>302.1532254241882</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046211</v>
+        <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906377</v>
+        <v>74.31639416170478</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414057</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891858</v>
+        <v>147.6314117602529</v>
       </c>
       <c r="K3" t="n">
-        <v>1068.312822670918</v>
+        <v>505.1752167419855</v>
       </c>
       <c r="L3" t="n">
-        <v>1415.606302739113</v>
+        <v>852.4686968101796</v>
       </c>
       <c r="M3" t="n">
-        <v>1840.238281375769</v>
+        <v>1277.100675446835</v>
       </c>
       <c r="N3" t="n">
-        <v>2290.517649870797</v>
+        <v>1727.380043941864</v>
       </c>
       <c r="O3" t="n">
-        <v>2680.215507629992</v>
+        <v>2117.077901701059</v>
       </c>
       <c r="P3" t="n">
-        <v>2973.649328608493</v>
+        <v>2410.51172267956</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.88287062364</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.88287062364</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.751268658633</v>
+        <v>2425.6136627297</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082332</v>
+        <v>2232.603124153399</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224569</v>
+        <v>2004.529278295636</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992826</v>
+        <v>1769.377170063893</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264625</v>
+        <v>1515.139813335692</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059092</v>
+        <v>1307.288313130159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294138</v>
+        <v>1099.528014365205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.3504647068304</v>
+        <v>943.6574257419483</v>
       </c>
       <c r="C4" t="n">
-        <v>411.4142817789235</v>
+        <v>774.7212428140414</v>
       </c>
       <c r="D4" t="n">
-        <v>261.2976423665878</v>
+        <v>624.6046034017056</v>
       </c>
       <c r="E4" t="n">
-        <v>261.2976423665878</v>
+        <v>476.6915098193125</v>
       </c>
       <c r="F4" t="n">
-        <v>261.2976423665877</v>
+        <v>329.8015623214021</v>
       </c>
       <c r="G4" t="n">
-        <v>261.2976423665877</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225638</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="I4" t="n">
-        <v>62.3976574124728</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038607</v>
+        <v>102.2230998038608</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589865</v>
+        <v>297.5053722589869</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712702</v>
+        <v>602.9258822712704</v>
       </c>
       <c r="M4" t="n">
         <v>935.3381100583201</v>
@@ -4510,28 +4510,28 @@
         <v>1848.902273001216</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809516</v>
+        <v>1848.902273001216</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.616385320801</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239672</v>
+        <v>1522.18163244455</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.416099574031</v>
+        <v>1233.074595778909</v>
       </c>
       <c r="V4" t="n">
-        <v>1051.416099574031</v>
+        <v>1233.074595778909</v>
       </c>
       <c r="W4" t="n">
-        <v>761.9989295370701</v>
+        <v>943.6574257419483</v>
       </c>
       <c r="X4" t="n">
-        <v>761.9989295370701</v>
+        <v>943.6574257419483</v>
       </c>
       <c r="Y4" t="n">
-        <v>761.9989295370701</v>
+        <v>943.6574257419483</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1526.361820639214</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1526.361820639214</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1271.677332433327</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>982.2601623963666</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>754.2706114983492</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.4780323548191</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>2011.826014609889</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1642.863497669478</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1284.597799062727</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>898.809546464483</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>487.8236416748754</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2398.425854674011</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,10 +4887,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>821.9838344741147</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>653.0476515462078</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>502.9310121338721</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.809023826499</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1003.632299304354</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708869</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>484.81129684298</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.35942226766</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011266</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.955258982918</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>889.0190760550115</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>738.9024366426758</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E16" t="n">
-        <v>590.9893430602826</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854705</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.396302956688</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.603723813158</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,22 +5677,22 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5704,19 +5704,19 @@
         <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,13 +5838,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098241</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819172</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421615</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038355</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708869</v>
+        <v>768.5380889459584</v>
       </c>
       <c r="C25" t="n">
-        <v>484.81129684298</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="D25" t="n">
-        <v>484.81129684298</v>
+        <v>449.4852666057158</v>
       </c>
       <c r="E25" t="n">
-        <v>484.81129684298</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="F25" t="n">
-        <v>484.81129684298</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>134.3760737382025</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011266</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.721318527045</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,16 +6385,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279802</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634547</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,7 +6622,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319338</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656832</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150037</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580127</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,19 +7093,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,31 +7339,31 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7567,22 +7567,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954158</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113628</v>
+        <v>5.747744270113657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.952548028231361e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.08148421406807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>92.02595514427233</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>220.8045073524575</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.14528491838966</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978304</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>87.50683360304686</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>138.494940240508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>80.44045370237457</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>40.30478226780181</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>28.15649395853808</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.7049629314314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>35.40333084624504</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>100.1408962628955</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194117</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.689582056016661e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1108765.865853667</v>
+        <v>1108765.865853666</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1343380.824823745</v>
+        <v>1343380.824823744</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1343380.824823745</v>
+        <v>1343380.824823744</v>
       </c>
     </row>
     <row r="9">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66311.33934030101</v>
+        <v>66311.33934030094</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.65996900057</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900061</v>
-      </c>
       <c r="G2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="H2" t="n">
         <v>80714.65996900063</v>
@@ -26335,7 +26335,7 @@
         <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642833</v>
@@ -26344,13 +26344,13 @@
         <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642837</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642839</v>
@@ -26366,7 +26366,7 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023777</v>
+        <v>54832.77288023795</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503629</v>
+        <v>204074.6584503628</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594281</v>
+        <v>32664.34410594296</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363182</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>15222.72472702449</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316942</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316936</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,10 +26430,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>20377.77944491161</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491165</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
         <v>20377.77944491162</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="O4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1323870.711475108</v>
+        <v>-1324265.532416261</v>
       </c>
       <c r="C6" t="n">
-        <v>-172236.4914083721</v>
+        <v>-172236.4914083724</v>
       </c>
       <c r="D6" t="n">
-        <v>-117403.7185281344</v>
+        <v>-117403.7185281343</v>
       </c>
       <c r="E6" t="n">
-        <v>-358207.2518440797</v>
+        <v>-358241.9897695155</v>
       </c>
       <c r="F6" t="n">
-        <v>-32794.79003672463</v>
+        <v>-32829.52796216037</v>
       </c>
       <c r="G6" t="n">
-        <v>-32794.79003672466</v>
+        <v>-32829.52796216034</v>
       </c>
       <c r="H6" t="n">
-        <v>-32794.79003672462</v>
+        <v>-32829.52796216031</v>
       </c>
       <c r="I6" t="n">
-        <v>-32794.79003672463</v>
+        <v>-32829.52796216033</v>
       </c>
       <c r="J6" t="n">
-        <v>-236869.4484870876</v>
+        <v>-236904.1864125231</v>
       </c>
       <c r="K6" t="n">
-        <v>-74102.06241834149</v>
+        <v>-74102.06241834164</v>
       </c>
       <c r="L6" t="n">
-        <v>-41437.71831239871</v>
+        <v>-41437.71831239868</v>
       </c>
       <c r="M6" t="n">
         <v>-126492.7462479104</v>
       </c>
       <c r="N6" t="n">
-        <v>-41437.71831239863</v>
+        <v>-41437.7183123986</v>
       </c>
       <c r="O6" t="n">
-        <v>-41437.7183123986</v>
+        <v>-41437.71831239859</v>
       </c>
       <c r="P6" t="n">
-        <v>-60865.43630603037</v>
+        <v>-60865.43630603043</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.97071765591</v>
+        <v>779.9707176559094</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.97071765591</v>
+        <v>779.9707176559094</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.97071765591</v>
+        <v>779.9707176559094</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.97071765591</v>
+        <v>779.9707176559094</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>274.9183408758538</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.32479227601175</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>138.3749467384729</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>101.3267271028721</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>35.40024543611435</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.223136140303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>121.5124994850845</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>77.76396351670556</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.566747394273988e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578957</v>
+        <v>4.212292467578956</v>
       </c>
       <c r="H2" t="n">
-        <v>43.139140233593</v>
+        <v>43.13914023359299</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563379</v>
+        <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201798</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727971</v>
+        <v>535.819397972797</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774668</v>
+        <v>664.7313435774666</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477739</v>
+        <v>739.6416997477738</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212827</v>
+        <v>751.6098757212826</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967944</v>
+        <v>709.7238924967943</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034389</v>
+        <v>605.7329222034388</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082674</v>
+        <v>454.8801982082672</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165569</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495557</v>
+        <v>95.98761460495554</v>
       </c>
       <c r="T2" t="n">
         <v>18.43931027682689</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195667</v>
+        <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
         <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967538</v>
+        <v>77.59708346967537</v>
       </c>
       <c r="J3" t="n">
         <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621705</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982522</v>
+        <v>489.3558747982521</v>
       </c>
       <c r="M3" t="n">
-        <v>571.055224464095</v>
+        <v>571.0552244640949</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278064</v>
+        <v>586.1693570278063</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012077</v>
+        <v>536.2304442012075</v>
       </c>
       <c r="P3" t="n">
-        <v>430.372206382513</v>
+        <v>430.3722063825129</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861698</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
         <v>139.9317596938503</v>
@@ -31157,7 +31157,7 @@
         <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284286</v>
+        <v>9.084295504284285</v>
       </c>
       <c r="U3" t="n">
         <v>0.1482746817891887</v>
@@ -31200,25 +31200,25 @@
         <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346625</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826822</v>
+        <v>56.82209903826821</v>
       </c>
       <c r="J4" t="n">
         <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876262</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
         <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957855</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328807</v>
+        <v>289.1434078328806</v>
       </c>
       <c r="O4" t="n">
         <v>267.070736350361</v>
@@ -31230,13 +31230,13 @@
         <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738648</v>
+        <v>84.95831373738645</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314393</v>
+        <v>32.92864687314392</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964343</v>
+        <v>8.073272837964341</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934935</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278166</v>
+        <v>315.7295469278164</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074795</v>
+        <v>428.9649286074794</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205012</v>
+        <v>509.2954665205011</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246919</v>
+        <v>522.1968121246916</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751077</v>
+        <v>479.6256810751075</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481693</v>
+        <v>374.4999264481692</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338179</v>
+        <v>232.5745083338178</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242475</v>
+        <v>49.0148789024247</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139413</v>
+        <v>86.0947013613941</v>
       </c>
       <c r="K3" t="n">
         <v>361.1553585674067</v>
       </c>
       <c r="L3" t="n">
-        <v>350.801495018378</v>
+        <v>350.8014950183779</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420767</v>
+        <v>428.9211905420765</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444731</v>
+        <v>454.827644944473</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567632</v>
+        <v>393.6341997567631</v>
       </c>
       <c r="P3" t="n">
         <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001482</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726065</v>
+        <v>40.22771958726062</v>
       </c>
       <c r="K4" t="n">
         <v>197.2548206617433</v>
@@ -34863,19 +34863,19 @@
         <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576261</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121093</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644007</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
         <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.0569271961558</v>
+        <v>72.05692719615577</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
